--- a/biology/Zoologie/Cyphotilapia_frontosa/Cyphotilapia_frontosa.xlsx
+++ b/biology/Zoologie/Cyphotilapia_frontosa/Cyphotilapia_frontosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Frontosa ou Changongo (Cyphotilapia frontosa) est une espèce de poisson de la famille des Cichlidés endémique du lac Tanganyika.
-Chez les sujets adultes, les deux sexes sont susceptibles d'arborer une bosse adipeuse sur le front, d'où le nom vernaculaire de bossu du Tanganyika ou de poisson bélier[1],[2].
+Chez les sujets adultes, les deux sexes sont susceptibles d'arborer une bosse adipeuse sur le front, d'où le nom vernaculaire de bossu du Tanganyika ou de poisson bélier,.
 La femelle pratique l'incubation buccale.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Maintenance en captivité[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
